--- a/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>78726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64012</v>
+        <v>62435</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97329</v>
+        <v>96467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07723319731225414</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06279793825420188</v>
+        <v>0.06125141150868117</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.095483319007216</v>
+        <v>0.09463829838237559</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -765,19 +765,19 @@
         <v>73739</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59233</v>
+        <v>58255</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92395</v>
+        <v>91773</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05635839990786525</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04527155667970815</v>
+        <v>0.04452424917861577</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07061755679776198</v>
+        <v>0.07014168060632865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>148</v>
@@ -786,19 +786,19 @@
         <v>152465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>130969</v>
+        <v>128843</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>177624</v>
+        <v>175531</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06549966027938672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05626485078378852</v>
+        <v>0.05535151036838622</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07630830457571963</v>
+        <v>0.075409200867389</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>196214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172617</v>
+        <v>173390</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220760</v>
+        <v>224909</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1924937618399773</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1693440940264277</v>
+        <v>0.1701022173438101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2165736054776028</v>
+        <v>0.220644145510986</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>367</v>
@@ -836,19 +836,19 @@
         <v>375726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>344689</v>
+        <v>343963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>409266</v>
+        <v>407896</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2871672164349237</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.263445538022516</v>
+        <v>0.2628901128493103</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3128015530436449</v>
+        <v>0.3117543876294017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>566</v>
@@ -857,19 +857,19 @@
         <v>571941</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>531077</v>
+        <v>532018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>611056</v>
+        <v>613602</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.245708864434733</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2281536341879293</v>
+        <v>0.2285580194775901</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2625130062727018</v>
+        <v>0.2636069975557413</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>744388</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>714348</v>
+        <v>714590</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>771039</v>
+        <v>771090</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7302730408477686</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7008030956336601</v>
+        <v>0.7010404638387621</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.756418771665463</v>
+        <v>0.7564686923064688</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>850</v>
@@ -907,19 +907,19 @@
         <v>858924</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>821128</v>
+        <v>821013</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>894199</v>
+        <v>890136</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6564743836572111</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6275872538636098</v>
+        <v>0.6274989278538772</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6834354162326169</v>
+        <v>0.6803297988506584</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1597</v>
@@ -928,19 +928,19 @@
         <v>1603312</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1561476</v>
+        <v>1557546</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1649011</v>
+        <v>1646441</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6887914752858803</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.670818574771219</v>
+        <v>0.6691302573853602</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7084242140550683</v>
+        <v>0.7073199311721311</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>45082</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33158</v>
+        <v>32699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>60607</v>
+        <v>60455</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02707081960868479</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01991069523542736</v>
+        <v>0.01963478934368078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03639321906383217</v>
+        <v>0.03630209461316987</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -1053,19 +1053,19 @@
         <v>48457</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35186</v>
+        <v>35903</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63566</v>
+        <v>62816</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03080043513002171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02236498537427035</v>
+        <v>0.02282049170278968</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04040392262993923</v>
+        <v>0.03992711529664481</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>92</v>
@@ -1074,19 +1074,19 @@
         <v>93540</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76199</v>
+        <v>75383</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>116325</v>
+        <v>112232</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02888261331816606</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02352835683970195</v>
+        <v>0.0232761704023888</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0359181738009756</v>
+        <v>0.03465430491255713</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>188686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>164387</v>
+        <v>162562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>219158</v>
+        <v>217526</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1133016668420785</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09871061366278829</v>
+        <v>0.09761489636728367</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1315993766505667</v>
+        <v>0.1306193684503453</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>222</v>
@@ -1124,19 +1124,19 @@
         <v>230459</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>203783</v>
+        <v>201828</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>261576</v>
+        <v>261550</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1464836072839214</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1295280538839471</v>
+        <v>0.1282855297716432</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1662624333145628</v>
+        <v>0.1662455926118784</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>401</v>
@@ -1145,19 +1145,19 @@
         <v>419145</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>383335</v>
+        <v>381042</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>463599</v>
+        <v>461630</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1294209774297187</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.118363794689783</v>
+        <v>0.1176558553568993</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1431473334254616</v>
+        <v>0.1425392921672103</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>1431575</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1397895</v>
+        <v>1401002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1456906</v>
+        <v>1460684</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8596275135492367</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.839403453586379</v>
+        <v>0.8412694467729156</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8748385596690823</v>
+        <v>0.8771069450944599</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1270</v>
@@ -1195,19 +1195,19 @@
         <v>1294357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1262482</v>
+        <v>1260635</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1323178</v>
+        <v>1323852</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8227159575860569</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8024555133749178</v>
+        <v>0.8012816045533061</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8410350097088489</v>
+        <v>0.8414638913106219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2666</v>
@@ -1216,19 +1216,19 @@
         <v>2725932</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2680168</v>
+        <v>2681867</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2769065</v>
+        <v>2769382</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8416964092521153</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8275656074468144</v>
+        <v>0.8280902440880332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8550145614496624</v>
+        <v>0.8551124005238336</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>16581</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9092</v>
+        <v>9615</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26488</v>
+        <v>27827</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03042718076691183</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0166844879440466</v>
+        <v>0.01764420272339006</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04860793066754188</v>
+        <v>0.0510654847670428</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1341,19 +1341,19 @@
         <v>9058</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4653</v>
+        <v>4236</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17963</v>
+        <v>17851</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01905104540893311</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009785963481076436</v>
+        <v>0.008909804264564015</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03777819389868076</v>
+        <v>0.03754348387158637</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -1362,19 +1362,19 @@
         <v>25639</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16349</v>
+        <v>16739</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39492</v>
+        <v>37083</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02512629465857889</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01602200318284529</v>
+        <v>0.01640386459359959</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03870164613326615</v>
+        <v>0.03634150215098467</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>73089</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57648</v>
+        <v>56189</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91604</v>
+        <v>91986</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1341251179159972</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1057882640957696</v>
+        <v>0.1031122672035729</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1681004706119336</v>
+        <v>0.1688028447325745</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -1412,19 +1412,19 @@
         <v>69560</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54040</v>
+        <v>54584</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86429</v>
+        <v>87014</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.146295502727596</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1136553839199869</v>
+        <v>0.1147995578194498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1817743717566762</v>
+        <v>0.1830046083564344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -1433,19 +1433,19 @@
         <v>142649</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121249</v>
+        <v>122602</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168061</v>
+        <v>164806</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1397960968337738</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1188238134028595</v>
+        <v>0.1201498628691575</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1646994466636801</v>
+        <v>0.1615098979994572</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>455264</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436457</v>
+        <v>435075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>472299</v>
+        <v>473169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.835447701317091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8009355150424724</v>
+        <v>0.7983988498035818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8667080547590564</v>
+        <v>0.8683048007966698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>376</v>
@@ -1483,19 +1483,19 @@
         <v>396858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>379103</v>
+        <v>378741</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>412647</v>
+        <v>411887</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.834653451863471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7973116851758675</v>
+        <v>0.7965515572356239</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.867860639745103</v>
+        <v>0.8662624233905111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>813</v>
@@ -1504,19 +1504,19 @@
         <v>852121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>826619</v>
+        <v>828483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>875775</v>
+        <v>874182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8350776085076473</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8100860884285589</v>
+        <v>0.8119127599171563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8582589125867571</v>
+        <v>0.8566978417291911</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>140389</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>119124</v>
+        <v>119409</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>165854</v>
+        <v>165409</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04346939335260831</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03688507039816613</v>
+        <v>0.03697328042468311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05135437130685597</v>
+        <v>0.05121655572587894</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -1629,19 +1629,19 @@
         <v>131255</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110063</v>
+        <v>109600</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>154682</v>
+        <v>156552</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03909714868659508</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03278480212470043</v>
+        <v>0.03264672684628046</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04607550598782015</v>
+        <v>0.0466326965748675</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>263</v>
@@ -1650,19 +1650,19 @@
         <v>271643</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>239535</v>
+        <v>239990</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>305368</v>
+        <v>304181</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04124094320131146</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03636625373585536</v>
+        <v>0.03643524583728543</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04636106688353403</v>
+        <v>0.04618079150394033</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>457990</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>420346</v>
+        <v>417975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>497368</v>
+        <v>499827</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1418098375835028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1301541261399574</v>
+        <v>0.129419714805456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1540027379720045</v>
+        <v>0.1547639888489108</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>656</v>
@@ -1700,19 +1700,19 @@
         <v>675745</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>623225</v>
+        <v>633201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>721607</v>
+        <v>726327</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2012860747920737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1856418382496907</v>
+        <v>0.1886133619344199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2149470819199793</v>
+        <v>0.2163529258835915</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1102</v>
@@ -1721,19 +1721,19 @@
         <v>1133735</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1073359</v>
+        <v>1075657</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1198301</v>
+        <v>1196816</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1721237472410019</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1629574546001714</v>
+        <v>0.1633064173849979</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1819261396385817</v>
+        <v>0.1817006955095732</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>2631226</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8147207690638889</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2496</v>
@@ -1771,19 +1771,19 @@
         <v>2550138</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7596167765213312</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5076</v>
@@ -1792,19 +1792,19 @@
         <v>5181365</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7866353095576866</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>118117</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97943</v>
+        <v>98249</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141440</v>
+        <v>141525</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1218713943476434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.101056774020374</v>
+        <v>0.101372710597739</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1459366674590852</v>
+        <v>0.1460234944539424</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>110</v>
@@ -2156,19 +2156,19 @@
         <v>118263</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96924</v>
+        <v>99305</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>139193</v>
+        <v>141004</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08860610350554141</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07261833872860907</v>
+        <v>0.07440233328164808</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1042874191909338</v>
+        <v>0.1056441631209448</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>214</v>
@@ -2177,19 +2177,19 @@
         <v>236380</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206696</v>
+        <v>209118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>266518</v>
+        <v>269364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1025999402978966</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08971586957386159</v>
+        <v>0.09076688506240886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1156810960366884</v>
+        <v>0.1169167237787251</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>217974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>194039</v>
+        <v>191247</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245884</v>
+        <v>243074</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2249033557551896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2002069297144866</v>
+        <v>0.1973269750087734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2537007701478032</v>
+        <v>0.2508013529052633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>433</v>
@@ -2227,19 +2227,19 @@
         <v>461529</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>427897</v>
+        <v>427233</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>497264</v>
+        <v>497520</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3457901253784127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3205920115533095</v>
+        <v>0.3200946887751674</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3725633063052095</v>
+        <v>0.3727552180773886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>641</v>
@@ -2248,19 +2248,19 @@
         <v>679503</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>633691</v>
+        <v>637488</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>724805</v>
+        <v>726758</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2949362268662323</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2750516475913236</v>
+        <v>0.2766998054615264</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3145991934667906</v>
+        <v>0.3154471230389244</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>633099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>603607</v>
+        <v>602239</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>663164</v>
+        <v>662440</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.653225249897167</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6227948868572694</v>
+        <v>0.6213839897061998</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6842456408631297</v>
+        <v>0.6834988813444104</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>701</v>
@@ -2298,19 +2298,19 @@
         <v>754916</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>716113</v>
+        <v>717538</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>793405</v>
+        <v>793124</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5656037711160459</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.536530955425329</v>
+        <v>0.537599099712583</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5944404725984898</v>
+        <v>0.5942296666802037</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1292</v>
@@ -2319,19 +2319,19 @@
         <v>1388016</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1341502</v>
+        <v>1340915</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1433814</v>
+        <v>1435882</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6024638328358711</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5822745973100372</v>
+        <v>0.5820198882104045</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6223424603991986</v>
+        <v>0.6232398461152538</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>68171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53477</v>
+        <v>53791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84261</v>
+        <v>85135</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03484869912238241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02733722087619186</v>
+        <v>0.02749763840018513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04307405936382504</v>
+        <v>0.04352074584100273</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -2444,19 +2444,19 @@
         <v>53582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39564</v>
+        <v>40927</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>69730</v>
+        <v>70291</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03059166400115745</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02258809081005421</v>
+        <v>0.02336617813098496</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03981047197895805</v>
+        <v>0.04013092735911231</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>115</v>
@@ -2465,19 +2465,19 @@
         <v>121753</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>102704</v>
+        <v>101188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>148030</v>
+        <v>144577</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03283766757463154</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02769999614562174</v>
+        <v>0.02729095961069258</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03992467263709269</v>
+        <v>0.0389933360863363</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>368584</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>332693</v>
+        <v>334784</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>403249</v>
+        <v>405105</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1884193438672668</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1700717468393311</v>
+        <v>0.1711408955875821</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2061400318906399</v>
+        <v>0.2070885972809695</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>399</v>
@@ -2515,19 +2515,19 @@
         <v>433699</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>398040</v>
+        <v>395096</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>469241</v>
+        <v>469717</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.24761052505604</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2272514128137587</v>
+        <v>0.2255706491083242</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.267902295685102</v>
+        <v>0.2681739307091069</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>746</v>
@@ -2536,19 +2536,19 @@
         <v>802284</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>753870</v>
+        <v>752924</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>854570</v>
+        <v>854713</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2163813712712147</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2033237412773539</v>
+        <v>0.2030687781543991</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2304833474787495</v>
+        <v>0.230521789014115</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>1519436</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1483532</v>
+        <v>1482663</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1556287</v>
+        <v>1557063</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7767319570103508</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7583780409451354</v>
+        <v>0.7579335241873342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7955700702518695</v>
+        <v>0.795966759891344</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1182</v>
@@ -2586,19 +2586,19 @@
         <v>1264257</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1229280</v>
+        <v>1224198</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1303067</v>
+        <v>1302074</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7217978109428026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7018284020861277</v>
+        <v>0.6989270367395307</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7439556595117859</v>
+        <v>0.7433887538834134</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2617</v>
@@ -2607,19 +2607,19 @@
         <v>2783693</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2729415</v>
+        <v>2732484</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2833985</v>
+        <v>2836839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7507809611541538</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7361416849455048</v>
+        <v>0.7369695497111329</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7643450662002998</v>
+        <v>0.765114782227524</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>7148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3092</v>
+        <v>2872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16712</v>
+        <v>17076</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0148559696245457</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00642680888217162</v>
+        <v>0.005968711476086575</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03473133711394442</v>
+        <v>0.03548833451713349</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -2732,19 +2732,19 @@
         <v>9238</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3967</v>
+        <v>4011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17306</v>
+        <v>18021</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02014188341998298</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00864982983403316</v>
+        <v>0.008745038049697163</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03773388977178381</v>
+        <v>0.03929284882669244</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -2753,19 +2753,19 @@
         <v>16386</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9189</v>
+        <v>9438</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27979</v>
+        <v>26767</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.017435510041247</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009777372289324108</v>
+        <v>0.01004234200887235</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02977082781509471</v>
+        <v>0.02848071438769663</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>101513</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84430</v>
+        <v>83958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122173</v>
+        <v>121699</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2109667160384962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1754648816363908</v>
+        <v>0.174483514763118</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2539018671631384</v>
+        <v>0.2529182594192091</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -2803,19 +2803,19 @@
         <v>77449</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62483</v>
+        <v>62096</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95536</v>
+        <v>96074</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1688694550919672</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.136238367466036</v>
+        <v>0.1353933956117122</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2083064326625003</v>
+        <v>0.2094795218115829</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -2824,19 +2824,19 @@
         <v>178962</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153815</v>
+        <v>155735</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>203457</v>
+        <v>206788</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1904231373411426</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1636654858408082</v>
+        <v>0.1657084974793013</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.216486568278386</v>
+        <v>0.2200308990671881</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>372519</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351104</v>
+        <v>352811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>390133</v>
+        <v>391127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7741773143369581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7296716192379138</v>
+        <v>0.7332194361316258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8107816795353627</v>
+        <v>0.8128474010277169</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -2874,19 +2874,19 @@
         <v>371945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>353703</v>
+        <v>353363</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>387931</v>
+        <v>389109</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8109886614880498</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7712149376027913</v>
+        <v>0.7704732475097172</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.845844826135621</v>
+        <v>0.8484145838756376</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>674</v>
@@ -2895,19 +2895,19 @@
         <v>744465</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>720052</v>
+        <v>716369</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>771248</v>
+        <v>769599</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7921413526176104</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7661655023193233</v>
+        <v>0.7622464612145642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8206400045312953</v>
+        <v>0.8188851629205222</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>193436</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>165674</v>
+        <v>167304</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>221321</v>
+        <v>222134</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05678324484768509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04863374770506766</v>
+        <v>0.04911236337786652</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06496907291132442</v>
+        <v>0.06520773013063864</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -3020,19 +3020,19 @@
         <v>181084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>156978</v>
+        <v>153826</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>210436</v>
+        <v>210811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05108314273834062</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04428312157156966</v>
+        <v>0.04339386142187305</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05936338193939147</v>
+        <v>0.05946929694720963</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>343</v>
@@ -3041,19 +3041,19 @@
         <v>374519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>336268</v>
+        <v>339980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>411894</v>
+        <v>418175</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0538764849230555</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04837381159852377</v>
+        <v>0.0489079033885193</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05925304743931714</v>
+        <v>0.06015656460950455</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>688072</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>638282</v>
+        <v>639445</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>738122</v>
+        <v>735732</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2019841376502553</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.187368318704003</v>
+        <v>0.1877097942711103</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2166764667854094</v>
+        <v>0.2159747776362655</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>904</v>
@@ -3091,19 +3091,19 @@
         <v>972677</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>919819</v>
+        <v>922399</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1029676</v>
+        <v>1026481</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2743894684538794</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2594781393340833</v>
+        <v>0.2602059880622523</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2904685923227734</v>
+        <v>0.2895671975936338</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1549</v>
@@ -3112,19 +3112,19 @@
         <v>1660749</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1586790</v>
+        <v>1591235</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1732097</v>
+        <v>1741153</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2389071453213805</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2282678153259317</v>
+        <v>0.228907243257528</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.249170839204659</v>
+        <v>0.2504736408361353</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>2525056</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2466308</v>
+        <v>2473210</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2578896</v>
+        <v>2575451</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7412326175020596</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7239872280052881</v>
+        <v>0.726013259444379</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7570373829684311</v>
+        <v>0.7560261385211428</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2215</v>
@@ -3162,19 +3162,19 @@
         <v>2391118</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2335305</v>
+        <v>2334005</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2447970</v>
+        <v>2444284</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.67452738880778</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6587828306221921</v>
+        <v>0.6584159489073808</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6905652876467496</v>
+        <v>0.6895253720717056</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4583</v>
@@ -3183,19 +3183,19 @@
         <v>4916174</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4837559</v>
+        <v>4834276</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4993871</v>
+        <v>4993961</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.707216369755564</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6959072768082624</v>
+        <v>0.6954350224819007</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7183935464794799</v>
+        <v>0.7184064966942119</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>85411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69771</v>
+        <v>70552</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101586</v>
+        <v>103738</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.11352705006234</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09273855480680775</v>
+        <v>0.09377615249988071</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1350269290438768</v>
+        <v>0.1378864771096462</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -3547,19 +3547,19 @@
         <v>86018</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70105</v>
+        <v>69549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106450</v>
+        <v>106493</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08722944628349028</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0710927153954934</v>
+        <v>0.07052876367075407</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1079497559372451</v>
+        <v>0.107993576453123</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>165</v>
@@ -3568,19 +3568,19 @@
         <v>171429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147115</v>
+        <v>148058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198165</v>
+        <v>201498</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09861014340006344</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08462430923712173</v>
+        <v>0.08516656339041657</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1139898327898818</v>
+        <v>0.1159066210678849</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>137431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117337</v>
+        <v>119204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159495</v>
+        <v>157865</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1826713833735676</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1559626384628503</v>
+        <v>0.1584438989987897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2119990674451693</v>
+        <v>0.2098322552739842</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>271</v>
@@ -3618,19 +3618,19 @@
         <v>309015</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>278948</v>
+        <v>279162</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>337370</v>
+        <v>339419</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.313368472535127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2828778796426509</v>
+        <v>0.2830949013559739</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3421236111511087</v>
+        <v>0.3442005628309457</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>410</v>
@@ -3639,19 +3639,19 @@
         <v>446446</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>408867</v>
+        <v>410342</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>485202</v>
+        <v>484097</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2568072740976575</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2351910070864426</v>
+        <v>0.2360392838334509</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.279100963332829</v>
+        <v>0.2784651163231249</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>529498</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>503981</v>
+        <v>504959</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>553150</v>
+        <v>550209</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7038015665640924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.669884015651629</v>
+        <v>0.6711839598691431</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7352391472950612</v>
+        <v>0.7313305308163516</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>540</v>
@@ -3689,19 +3689,19 @@
         <v>591075</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>560038</v>
+        <v>560377</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>624106</v>
+        <v>622731</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5994020811813827</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5679281898184469</v>
+        <v>0.5682719431158502</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.632899120304672</v>
+        <v>0.6315040464737282</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1070</v>
@@ -3710,19 +3710,19 @@
         <v>1120573</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1076887</v>
+        <v>1074026</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1161780</v>
+        <v>1159059</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6445825825022791</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6194533612754984</v>
+        <v>0.6178076435469694</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6682860993285177</v>
+        <v>0.6667210671434057</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>84678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>68253</v>
+        <v>68075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104528</v>
+        <v>106767</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04087514055552224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03294645619187286</v>
+        <v>0.03286078371435255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0504568476530568</v>
+        <v>0.05153775946129393</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -3835,19 +3835,19 @@
         <v>68583</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52370</v>
+        <v>52069</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86105</v>
+        <v>87353</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03459722763426448</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02641860513538034</v>
+        <v>0.02626694464570897</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04343663696323045</v>
+        <v>0.04406613067524339</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>143</v>
@@ -3856,19 +3856,19 @@
         <v>153260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>129607</v>
+        <v>128892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>178371</v>
+        <v>179991</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03780533819554755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03197051889246204</v>
+        <v>0.03179436084984359</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04399943539156047</v>
+        <v>0.04439912992498539</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>362167</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>327004</v>
+        <v>326931</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>399112</v>
+        <v>398946</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.174822778860197</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1578490162455958</v>
+        <v>0.1578136296023435</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1926563474528238</v>
+        <v>0.1925764755928718</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>397</v>
@@ -3906,19 +3906,19 @@
         <v>423926</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>385599</v>
+        <v>388331</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>456966</v>
+        <v>464927</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2138541568717565</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1945196757758416</v>
+        <v>0.1958978758964446</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2305218053539483</v>
+        <v>0.2345377862212166</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>730</v>
@@ -3927,19 +3927,19 @@
         <v>786093</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>738308</v>
+        <v>737392</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>838405</v>
+        <v>844373</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1939085192703943</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1821212669381975</v>
+        <v>0.1818953488164815</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2068125703570123</v>
+        <v>0.2082847025457062</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>1624780</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1588249</v>
+        <v>1584930</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1663704</v>
+        <v>1661585</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7843020805842807</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.766668386223775</v>
+        <v>0.7650661559377251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8030914208477191</v>
+        <v>0.8020682716608696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1442</v>
@@ -3977,19 +3977,19 @@
         <v>1489805</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1452419</v>
+        <v>1448319</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1529447</v>
+        <v>1529065</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.751548615493979</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7326891200409975</v>
+        <v>0.7306205934583795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7715465393865442</v>
+        <v>0.7713541767300741</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2977</v>
@@ -3998,19 +3998,19 @@
         <v>3114584</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3057352</v>
+        <v>3053521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3164111</v>
+        <v>3167468</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7682861425340581</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7541684172707501</v>
+        <v>0.7532233648436487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7805029748723633</v>
+        <v>0.7813310235817682</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>12878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7525</v>
+        <v>6915</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21884</v>
+        <v>22630</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02354819484560744</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01375892432612797</v>
+        <v>0.01264496475910428</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04001580359407272</v>
+        <v>0.04137925708993657</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -4123,19 +4123,19 @@
         <v>8771</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4055</v>
+        <v>4120</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15917</v>
+        <v>16453</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01597212792294348</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007384736135176507</v>
+        <v>0.007502426426818044</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02898604192477262</v>
+        <v>0.02996125465832186</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -4144,19 +4144,19 @@
         <v>21649</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13507</v>
+        <v>14560</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32160</v>
+        <v>33616</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01975237072469513</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01232393079306046</v>
+        <v>0.0132840450387979</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02934237521640377</v>
+        <v>0.03067035702949686</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>101019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84160</v>
+        <v>81552</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123716</v>
+        <v>120627</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1847164245798605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.153889113363084</v>
+        <v>0.1491210129590397</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2262197400711605</v>
+        <v>0.2205705671919206</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -4194,19 +4194,19 @@
         <v>108562</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89006</v>
+        <v>90256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126594</v>
+        <v>128870</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1976943638014002</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1620820916894041</v>
+        <v>0.1643591807694673</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2305321393428553</v>
+        <v>0.2346768643082378</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>189</v>
@@ -4215,19 +4215,19 @@
         <v>209581</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182276</v>
+        <v>183627</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>237963</v>
+        <v>241517</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1912187397309431</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1663064673406976</v>
+        <v>0.1675388775307198</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2171143446617728</v>
+        <v>0.2203570832247894</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>432989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>411692</v>
+        <v>412570</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>451281</v>
+        <v>452345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7917353805745321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7527921759663293</v>
+        <v>0.7543982563280716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8251824509141753</v>
+        <v>0.8271280866368865</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>416</v>
@@ -4265,19 +4265,19 @@
         <v>431807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>413002</v>
+        <v>410914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>450732</v>
+        <v>451230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7863335082756564</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7520882488936692</v>
+        <v>0.7482868136703967</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8207966504459028</v>
+        <v>0.8217029813584401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>816</v>
@@ -4286,19 +4286,19 @@
         <v>864797</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>836383</v>
+        <v>829705</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>891933</v>
+        <v>891102</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7890288895443617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7631040932519451</v>
+        <v>0.7570111017834349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8137869933859435</v>
+        <v>0.8130290762288761</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>182967</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>159335</v>
+        <v>156739</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>211402</v>
+        <v>209807</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0542791961089157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0472685451262699</v>
+        <v>0.04649839440505719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06271472474836642</v>
+        <v>0.06224163687768283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>146</v>
@@ -4411,19 +4411,19 @@
         <v>163371</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140691</v>
+        <v>139392</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>190715</v>
+        <v>190574</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04644441976427691</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03999683055201831</v>
+        <v>0.03962749792582712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05421806638326494</v>
+        <v>0.05417780051876483</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>330</v>
@@ -4432,19 +4432,19 @@
         <v>346338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>313404</v>
+        <v>310466</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>386662</v>
+        <v>387692</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05027837549839954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04549729189812785</v>
+        <v>0.04507070481598586</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05613216890694548</v>
+        <v>0.05628170266771379</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>600617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>555297</v>
+        <v>559350</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>648928</v>
+        <v>646827</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1781796513260468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1647349167511443</v>
+        <v>0.1659372012864893</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.192511654081604</v>
+        <v>0.1918881388541251</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>769</v>
@@ -4482,19 +4482,19 @@
         <v>841503</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>784252</v>
+        <v>795893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>893894</v>
+        <v>899051</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2392290683185819</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2229532874092124</v>
+        <v>0.2262626496407508</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2541232679275495</v>
+        <v>0.2555892203302951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1329</v>
@@ -4503,19 +4503,19 @@
         <v>1442120</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1375852</v>
+        <v>1373755</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1516607</v>
+        <v>1517621</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2093544743228595</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1997342412651582</v>
+        <v>0.1994298607340622</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2201678795866467</v>
+        <v>0.2203149806475882</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>2587268</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2532429</v>
+        <v>2540423</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2635266</v>
+        <v>2637871</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7675411525650375</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7512726474955973</v>
+        <v>0.7536442357206926</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7817802809301417</v>
+        <v>0.7825531103075746</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2398</v>
@@ -4553,19 +4553,19 @@
         <v>2512687</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2454171</v>
+        <v>2454427</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2570143</v>
+        <v>2563723</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7143265119171411</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6976912340062983</v>
+        <v>0.6977637451296146</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7306605502308948</v>
+        <v>0.7288352833745293</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4863</v>
@@ -4574,19 +4574,19 @@
         <v>5099955</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5026773</v>
+        <v>5029754</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5178057</v>
+        <v>5173302</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7403671501787409</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7297432612125876</v>
+        <v>0.7301759790639987</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7517053290274207</v>
+        <v>0.7510150396869938</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>25910</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17972</v>
+        <v>18022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35992</v>
+        <v>35793</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04616403910185097</v>
+        <v>0.04616403910185096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03202065526327155</v>
+        <v>0.03211089638735865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06412902362091726</v>
+        <v>0.06377422377103337</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -4938,19 +4938,19 @@
         <v>41439</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31975</v>
+        <v>31961</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52862</v>
+        <v>53272</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05272108357460193</v>
+        <v>0.05272108357460194</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04068017323707106</v>
+        <v>0.04066262824533511</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0672544603913323</v>
+        <v>0.06777644471399615</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -4959,19 +4959,19 @@
         <v>67348</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54185</v>
+        <v>54916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81759</v>
+        <v>83027</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04998949264660762</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04021895371637826</v>
+        <v>0.04076171240492052</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06068569632275057</v>
+        <v>0.06162693575221515</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>155565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136595</v>
+        <v>137237</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>175873</v>
+        <v>176146</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2771762683121608</v>
+        <v>0.2771762683121607</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2433763781442882</v>
+        <v>0.2445203987277278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.31336081179456</v>
+        <v>0.3138471859753491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>503</v>
@@ -5009,19 +5009,19 @@
         <v>271336</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251774</v>
+        <v>251235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>291481</v>
+        <v>292097</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3452101904632744</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3203222837256806</v>
+        <v>0.3196364774431376</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3708399357993888</v>
+        <v>0.3716242332963239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>704</v>
@@ -5030,19 +5030,19 @@
         <v>426900</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>400206</v>
+        <v>400551</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>455889</v>
+        <v>459163</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.316868024215028</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2970539895317852</v>
+        <v>0.2973099663313251</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3383852245298173</v>
+        <v>0.3408149984101077</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>379775</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>358051</v>
+        <v>359179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>400132</v>
+        <v>400210</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6766596925859883</v>
+        <v>0.6766596925859882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6379534719064778</v>
+        <v>0.6399641669812997</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7129317795291819</v>
+        <v>0.7130709659632337</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>799</v>
@@ -5080,19 +5080,19 @@
         <v>473227</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>452669</v>
+        <v>452131</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>494606</v>
+        <v>494487</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6020687259621235</v>
+        <v>0.6020687259621237</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5759142016530598</v>
+        <v>0.5752301273019134</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.62926847960431</v>
+        <v>0.6291171784876907</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1239</v>
@@ -5101,19 +5101,19 @@
         <v>853001</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>824652</v>
+        <v>821289</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>880649</v>
+        <v>881238</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6331424831383645</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6121004205756769</v>
+        <v>0.609604228827786</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6536639846071903</v>
+        <v>0.6541016036886033</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>20656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13698</v>
+        <v>12538</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30209</v>
+        <v>30235</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009591269295135478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00636049801848773</v>
+        <v>0.005822077295434169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01402716223321387</v>
+        <v>0.01403930078041711</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -5226,19 +5226,19 @@
         <v>38499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29017</v>
+        <v>27988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52986</v>
+        <v>51375</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.01830234656351063</v>
+        <v>0.01830234656351062</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01379472024899156</v>
+        <v>0.01330556463344394</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02518970272879023</v>
+        <v>0.02442409459743764</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>76</v>
@@ -5247,19 +5247,19 @@
         <v>59154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46648</v>
+        <v>45652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76934</v>
+        <v>73110</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01389551769000993</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01095776532211165</v>
+        <v>0.01072366389645027</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01807189386074256</v>
+        <v>0.01717371921079056</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>479529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>436839</v>
+        <v>438353</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>520196</v>
+        <v>519740</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2226633958507844</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2028407816009108</v>
+        <v>0.2035434804993106</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2415464162573246</v>
+        <v>0.2413344237780643</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>867</v>
@@ -5297,19 +5297,19 @@
         <v>559750</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>526426</v>
+        <v>526780</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>600655</v>
+        <v>598250</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2661070932484745</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2502647275906327</v>
+        <v>0.2504329049295412</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2855532966008453</v>
+        <v>0.2844099666894363</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1358</v>
@@ -5318,19 +5318,19 @@
         <v>1039280</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>987781</v>
+        <v>986088</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1095901</v>
+        <v>1099245</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.244129450970084</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.232032417252453</v>
+        <v>0.231634669312948</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2574299833095542</v>
+        <v>0.2582153774884751</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>1653422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1611596</v>
+        <v>1611263</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1698083</v>
+        <v>1694653</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7677453348540801</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.748323962758908</v>
+        <v>0.7481696863026273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7884831420571075</v>
+        <v>0.7868907633156969</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1918</v>
@@ -5368,19 +5368,19 @@
         <v>1505228</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1467094</v>
+        <v>1467269</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1542913</v>
+        <v>1540230</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7155905601880149</v>
+        <v>0.7155905601880148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.697461701001471</v>
+        <v>0.6975450267661089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.733506481331101</v>
+        <v>0.7322306930817611</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3351</v>
@@ -5389,19 +5389,19 @@
         <v>3158650</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3102970</v>
+        <v>3102169</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3210798</v>
+        <v>3212852</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7419750313399059</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7288955812408471</v>
+        <v>0.7287076048078214</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7542247161231543</v>
+        <v>0.7547071106433811</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>4442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1665</v>
+        <v>1559</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9039</v>
+        <v>9278</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006331700794836168</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002373639243123207</v>
+        <v>0.002222316512531799</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01288441740502757</v>
+        <v>0.01322544728099182</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -5514,19 +5514,19 @@
         <v>13022</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7650</v>
+        <v>7800</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21848</v>
+        <v>21788</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01788677824338172</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01050756401957253</v>
+        <v>0.01071348109354845</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03000885559998036</v>
+        <v>0.02992658713963504</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -5535,19 +5535,19 @@
         <v>17464</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10961</v>
+        <v>10892</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26607</v>
+        <v>27115</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01221633502401299</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007667354357790755</v>
+        <v>0.007619125899185349</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01861140379573653</v>
+        <v>0.0189668560529012</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>152699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129352</v>
+        <v>127578</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178106</v>
+        <v>177883</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2176599842806404</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1843812252886394</v>
+        <v>0.1818523110777602</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2538751499460672</v>
+        <v>0.253557675587484</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>277</v>
@@ -5585,19 +5585,19 @@
         <v>187637</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>167515</v>
+        <v>166199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>207216</v>
+        <v>209818</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2577251195955873</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2300880667660523</v>
+        <v>0.2282797553000553</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2846181449137961</v>
+        <v>0.2881927160376712</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>427</v>
@@ -5606,19 +5606,19 @@
         <v>340336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>309366</v>
+        <v>311283</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>372142</v>
+        <v>374875</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2380638861775173</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2164005871085571</v>
+        <v>0.2177413557361426</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.260312533059561</v>
+        <v>0.2622238079268125</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>544408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>518906</v>
+        <v>518046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>566132</v>
+        <v>569356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7760083149245234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7396580656654133</v>
+        <v>0.7384322699042885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8069748858169138</v>
+        <v>0.8115698951102556</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>700</v>
@@ -5656,19 +5656,19 @@
         <v>527390</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>506818</v>
+        <v>504040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>548118</v>
+        <v>549009</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7243881021610308</v>
+        <v>0.7243881021610309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6961323065296956</v>
+        <v>0.6923166772607496</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7528581746363747</v>
+        <v>0.7540817995271103</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1216</v>
@@ -5677,19 +5677,19 @@
         <v>1071798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1040215</v>
+        <v>1038661</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1103153</v>
+        <v>1103191</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7497197787984698</v>
+        <v>0.7497197787984697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7276275938713342</v>
+        <v>0.7265404076813319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7716529331510865</v>
+        <v>0.7716792895009262</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>51007</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39466</v>
+        <v>38776</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65545</v>
+        <v>66157</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01493012413555699</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01155198294585951</v>
+        <v>0.01134990306333827</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01918527526517484</v>
+        <v>0.01936458933701339</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>134</v>
@@ -5802,19 +5802,19 @@
         <v>92960</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75939</v>
+        <v>78137</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112530</v>
+        <v>114088</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0256970699837153</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02099184272824717</v>
+        <v>0.02159967317497117</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03110688160390531</v>
+        <v>0.03153765551362521</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>196</v>
@@ -5823,19 +5823,19 @@
         <v>143967</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>124342</v>
+        <v>124726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>167394</v>
+        <v>166324</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02046752622832062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01767748891892106</v>
+        <v>0.01773210795020815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02379813299017</v>
+        <v>0.02364601879107893</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>787794</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>736294</v>
+        <v>737724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>842308</v>
+        <v>841050</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2305913689950168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2155170018631442</v>
+        <v>0.215935658855206</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.246547977233546</v>
+        <v>0.246179755490825</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1647</v>
@@ -5873,19 +5873,19 @@
         <v>1018722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>974444</v>
+        <v>975533</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1064542</v>
+        <v>1072510</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2816073605650951</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2693675400098223</v>
+        <v>0.2696685791296571</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2942735161038618</v>
+        <v>0.2964761309508705</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2489</v>
@@ -5894,19 +5894,19 @@
         <v>1806516</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1739307</v>
+        <v>1738697</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1881348</v>
+        <v>1874390</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2568287126641023</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2472738476137444</v>
+        <v>0.2471871093522216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2674674221031799</v>
+        <v>0.2664782515612234</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>2577605</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2523051</v>
+        <v>2523312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2629230</v>
+        <v>2629326</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7544785068694262</v>
+        <v>0.7544785068694263</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7385104014651858</v>
+        <v>0.7385867157874706</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.769589546414276</v>
+        <v>0.7696175104175543</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3417</v>
@@ -5944,19 +5944,19 @@
         <v>2505844</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2458846</v>
+        <v>2452781</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2549704</v>
+        <v>2550467</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6926955694511897</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6797037499726537</v>
+        <v>0.6780271655856474</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7048197226818612</v>
+        <v>0.7050306799692372</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5806</v>
@@ -5965,19 +5965,19 @@
         <v>5083449</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5006668</v>
+        <v>5020258</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5151034</v>
+        <v>5153289</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7227037611075769</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.711787992687246</v>
+        <v>0.7137200732338559</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7323121209154498</v>
+        <v>0.7326326931796407</v>
       </c>
     </row>
     <row r="19">
